--- a/res/source/proto.xlsx
+++ b/res/source/proto.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>协议Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,6 +107,22 @@
   </si>
   <si>
     <t>协议名称备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:uint32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b:[]string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -623,6 +639,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/source/proto.xlsx
+++ b/res/source/proto.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>协议Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>b:[]string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2:[]C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +531,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -658,6 +662,9 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/res/source/proto.xlsx
+++ b/res/source/proto.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>协议Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>c2:[]C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:int32</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +535,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -597,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>

--- a/res/source/proto.xlsx
+++ b/res/source/proto.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>协议Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>a:int32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3:*C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4:[]*C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I16" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -546,7 +554,7 @@
     <col min="4" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -557,7 +565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27">
+    <row r="2" spans="1:9" ht="27">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -571,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
@@ -590,7 +598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -613,7 +621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -630,7 +638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -647,7 +655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -668,6 +676,12 @@
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/res/source/proto.xlsx
+++ b/res/source/proto.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>协议Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>c4:[]*C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d:[]uint8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +547,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I15:I16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -635,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
